--- a/Pertemuan 1/Data/SM_2019-2023.xlsx
+++ b/Pertemuan 1/Data/SM_2019-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\MPDW\Pertemuan 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D4EF9D-2EA9-4232-9B2D-40C035F1C85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C584A3D0-0894-4810-9043-5A4A4771D940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{94AF9B2B-6818-472A-A29D-6FF878EC17AF}"/>
   </bookViews>
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CEFD96-D148-4C61-AA25-FEE37901D8C5}">
   <dimension ref="A1:B1827"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1806" workbookViewId="0">
-      <selection activeCell="M1822" sqref="M1822"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
